--- a/Code/Results/Cases/Case_1_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3388701710946975</v>
+        <v>0.1195823126968207</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2589436566277783</v>
+        <v>0.2521840007823073</v>
       </c>
       <c r="E2">
-        <v>0.1865917371117405</v>
+        <v>0.1817321604552902</v>
       </c>
       <c r="F2">
-        <v>0.5381840814350625</v>
+        <v>1.002657103835233</v>
       </c>
       <c r="G2">
-        <v>0.2579971000918846</v>
+        <v>0.4691778255019017</v>
       </c>
       <c r="H2">
-        <v>0.2330224076678675</v>
+        <v>0.624537289142431</v>
       </c>
       <c r="I2">
-        <v>0.2139062156081852</v>
+        <v>0.4322752185273107</v>
       </c>
       <c r="J2">
-        <v>0.181444975602993</v>
+        <v>0.1767144191186674</v>
       </c>
       <c r="K2">
-        <v>2.585603440824713</v>
+        <v>0.836340381242195</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9842683018111416</v>
+        <v>2.145773834768136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2951797335778963</v>
+        <v>0.1054339025360349</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2300699228996308</v>
+        <v>0.2451045383362214</v>
       </c>
       <c r="E3">
-        <v>0.1662344418627413</v>
+        <v>0.1771693951812097</v>
       </c>
       <c r="F3">
-        <v>0.5124243495655563</v>
+        <v>1.005474163352524</v>
       </c>
       <c r="G3">
-        <v>0.2478456364323378</v>
+        <v>0.4723886240265074</v>
       </c>
       <c r="H3">
-        <v>0.2344286851196316</v>
+        <v>0.6300606986291726</v>
       </c>
       <c r="I3">
-        <v>0.2261914419041968</v>
+        <v>0.4391317139909034</v>
       </c>
       <c r="J3">
-        <v>0.1619950990724348</v>
+        <v>0.1727077392993479</v>
       </c>
       <c r="K3">
-        <v>2.261862774024394</v>
+        <v>0.7314491664905063</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9653197813908889</v>
+        <v>2.163876794879457</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2683367029650725</v>
+        <v>0.09673000671905641</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2124883796082457</v>
+        <v>0.2408494425518768</v>
       </c>
       <c r="E4">
-        <v>0.1538990615017752</v>
+        <v>0.1744545561820914</v>
       </c>
       <c r="F4">
-        <v>0.4978030462613816</v>
+        <v>1.007840017497806</v>
       </c>
       <c r="G4">
-        <v>0.2424521137663049</v>
+        <v>0.4747494121901994</v>
       </c>
       <c r="H4">
-        <v>0.235819989488725</v>
+        <v>0.6337673373468036</v>
       </c>
       <c r="I4">
-        <v>0.2343040864423411</v>
+        <v>0.4436260215305605</v>
       </c>
       <c r="J4">
-        <v>0.1502683397985578</v>
+        <v>0.1703493160176635</v>
       </c>
       <c r="K4">
-        <v>2.062860706188587</v>
+        <v>0.6667970383132911</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9565607638001694</v>
+        <v>2.1764681691173</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2573914165141673</v>
+        <v>0.09317916990835329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2053576201132472</v>
+        <v>0.2391386688406669</v>
       </c>
       <c r="E5">
-        <v>0.1489103228420454</v>
+        <v>0.1733701089234394</v>
       </c>
       <c r="F5">
-        <v>0.4921300159019424</v>
+        <v>1.008964067103889</v>
       </c>
       <c r="G5">
-        <v>0.2404538219298047</v>
+        <v>0.475809201007614</v>
       </c>
       <c r="H5">
-        <v>0.2365145895792367</v>
+        <v>0.6353571048546343</v>
       </c>
       <c r="I5">
-        <v>0.2377493187608479</v>
+        <v>0.4455290126485583</v>
       </c>
       <c r="J5">
-        <v>0.1455396333928576</v>
+        <v>0.1694138346030272</v>
       </c>
       <c r="K5">
-        <v>1.981692932105091</v>
+        <v>0.6403902091896612</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9536793980070257</v>
+        <v>2.181970118322823</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2555735017377287</v>
+        <v>0.09258932698703859</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2041755201255171</v>
+        <v>0.2388560024955098</v>
       </c>
       <c r="E6">
-        <v>0.1480841520059428</v>
+        <v>0.1731913602184925</v>
       </c>
       <c r="F6">
-        <v>0.4912048091298047</v>
+        <v>1.00916037423243</v>
       </c>
       <c r="G6">
-        <v>0.2401337370020329</v>
+        <v>0.4759910773332479</v>
       </c>
       <c r="H6">
-        <v>0.2366374913765981</v>
+        <v>0.6356258733323159</v>
       </c>
       <c r="I6">
-        <v>0.2383296961095507</v>
+        <v>0.4458493231257474</v>
       </c>
       <c r="J6">
-        <v>0.1447573400781295</v>
+        <v>0.1692600452054265</v>
       </c>
       <c r="K6">
-        <v>1.968210227968115</v>
+        <v>0.6360017743506319</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9532415083240977</v>
+        <v>2.182906102811586</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2681891203612849</v>
+        <v>0.09668213443382001</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.212392078585637</v>
+        <v>0.2408262762763087</v>
       </c>
       <c r="E7">
-        <v>0.1538316318046249</v>
+        <v>0.174439842301787</v>
       </c>
       <c r="F7">
-        <v>0.497725402448026</v>
+        <v>1.007854529247105</v>
       </c>
       <c r="G7">
-        <v>0.2424243706892639</v>
+        <v>0.4747633092997532</v>
       </c>
       <c r="H7">
-        <v>0.2358288468976824</v>
+        <v>0.6337884564822076</v>
       </c>
       <c r="I7">
-        <v>0.2343499912571705</v>
+        <v>0.4436513963183106</v>
       </c>
       <c r="J7">
-        <v>0.1502043695347908</v>
+        <v>0.1703365961229437</v>
       </c>
       <c r="K7">
-        <v>2.061766364975142</v>
+        <v>0.666441149236249</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9565191641518567</v>
+        <v>2.176540869137625</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3238077916011264</v>
+        <v>0.114707569944656</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2489555418766116</v>
+        <v>0.2497240511433176</v>
       </c>
       <c r="E8">
-        <v>0.1795364870350014</v>
+        <v>0.1801409585482645</v>
       </c>
       <c r="F8">
-        <v>0.5290446168520901</v>
+        <v>1.003496372176514</v>
       </c>
       <c r="G8">
-        <v>0.25431555257925</v>
+        <v>0.470204006296548</v>
       </c>
       <c r="H8">
-        <v>0.2333945964944704</v>
+        <v>0.6263763390845583</v>
       </c>
       <c r="I8">
-        <v>0.2180215555218314</v>
+        <v>0.4345803200484681</v>
       </c>
       <c r="J8">
-        <v>0.1746913515549338</v>
+        <v>0.1753118216176262</v>
       </c>
       <c r="K8">
-        <v>2.474013759505397</v>
+        <v>0.8002265870659357</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9771164536893906</v>
+        <v>2.151709185957401</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4328568778901314</v>
+        <v>0.1499124367479823</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3219750268928578</v>
+        <v>0.2678949077518951</v>
       </c>
       <c r="E9">
-        <v>0.2314016386388857</v>
+        <v>0.1920067519180222</v>
       </c>
       <c r="F9">
-        <v>0.6006736087779245</v>
+        <v>1.000000015184035</v>
       </c>
       <c r="G9">
-        <v>0.2848409330175983</v>
+        <v>0.464359894327302</v>
       </c>
       <c r="H9">
-        <v>0.2330511095429628</v>
+        <v>0.6143420847684027</v>
       </c>
       <c r="I9">
-        <v>0.1907041004764718</v>
+        <v>0.4190478570801979</v>
       </c>
       <c r="J9">
-        <v>0.2246204598608017</v>
+        <v>0.185874824323875</v>
       </c>
       <c r="K9">
-        <v>3.281495317180315</v>
+        <v>1.06053556122373</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.041986897316946</v>
+        <v>2.114741449861313</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5131425472355886</v>
+        <v>0.1756789511267129</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3766548775656133</v>
+        <v>0.2816796712387202</v>
       </c>
       <c r="E10">
-        <v>0.2706287680114556</v>
+        <v>0.2011409425320565</v>
       </c>
       <c r="F10">
-        <v>0.6605971687900407</v>
+        <v>1.000514636430772</v>
       </c>
       <c r="G10">
-        <v>0.3124628140131875</v>
+        <v>0.4619648098734217</v>
       </c>
       <c r="H10">
-        <v>0.2358544335392736</v>
+        <v>0.6070246872467777</v>
       </c>
       <c r="I10">
-        <v>0.1737669366932764</v>
+        <v>0.4090103917808978</v>
       </c>
       <c r="J10">
-        <v>0.2627652286007987</v>
+        <v>0.1941278648999969</v>
       </c>
       <c r="K10">
-        <v>3.875502963088763</v>
+        <v>1.250459902285456</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.107013715815356</v>
+        <v>2.094752739223196</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5497459807143628</v>
+        <v>0.1873771826285235</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4018087571247406</v>
+        <v>0.2880439751445749</v>
       </c>
       <c r="E11">
-        <v>0.2887731683668804</v>
+        <v>0.2053864299151087</v>
       </c>
       <c r="F11">
-        <v>0.6896961919879061</v>
+        <v>1.001419410855704</v>
       </c>
       <c r="G11">
-        <v>0.3263462288469157</v>
+        <v>0.4612898219435095</v>
       </c>
       <c r="H11">
-        <v>0.237877252213039</v>
+        <v>0.6040267002922377</v>
       </c>
       <c r="I11">
-        <v>0.1668041256824662</v>
+        <v>0.4047422882102474</v>
       </c>
       <c r="J11">
-        <v>0.2805063913282169</v>
+        <v>0.1979895144136634</v>
       </c>
       <c r="K11">
-        <v>4.146217877497463</v>
+        <v>1.336558304482367</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.140944897144806</v>
+        <v>2.087221467412178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5636220910538157</v>
+        <v>0.1918034373503872</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4113788515422812</v>
+        <v>0.2904672945047366</v>
       </c>
       <c r="E12">
-        <v>0.2956919631222874</v>
+        <v>0.2070070191796773</v>
       </c>
       <c r="F12">
-        <v>0.7010023089441262</v>
+        <v>1.001858527709885</v>
       </c>
       <c r="G12">
-        <v>0.3318099569674189</v>
+        <v>0.4610940116827891</v>
       </c>
       <c r="H12">
-        <v>0.238758255384127</v>
+        <v>0.6029389963966167</v>
       </c>
       <c r="I12">
-        <v>0.1642797068557709</v>
+        <v>0.4031689136304877</v>
       </c>
       <c r="J12">
-        <v>0.2872866925885802</v>
+        <v>0.1994672427019282</v>
       </c>
       <c r="K12">
-        <v>4.248830103519765</v>
+        <v>1.369116820938189</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.154470883865287</v>
+        <v>2.084594518215368</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5606328882506944</v>
+        <v>0.1908503294635295</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.409315687711711</v>
+        <v>0.2899448004841645</v>
       </c>
       <c r="E13">
-        <v>0.2941996663907744</v>
+        <v>0.2066574229815643</v>
       </c>
       <c r="F13">
-        <v>0.6985541988667876</v>
+        <v>1.001759663356964</v>
       </c>
       <c r="G13">
-        <v>0.3306237861941099</v>
+        <v>0.4611335207399208</v>
       </c>
       <c r="H13">
-        <v>0.2385632757086142</v>
+        <v>0.6031711371087454</v>
       </c>
       <c r="I13">
-        <v>0.1648183016784905</v>
+        <v>0.4035058614120377</v>
       </c>
       <c r="J13">
-        <v>0.2858235680286896</v>
+        <v>0.1991483027050123</v>
       </c>
       <c r="K13">
-        <v>4.226725900020483</v>
+        <v>1.362106799581795</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.151526855228298</v>
+        <v>2.085150266178459</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5508872512535561</v>
+        <v>0.1877414073186401</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4025951676437103</v>
+        <v>0.2882430775185583</v>
       </c>
       <c r="E14">
-        <v>0.2893413930473443</v>
+        <v>0.2055194983255006</v>
       </c>
       <c r="F14">
-        <v>0.6906204682865393</v>
+        <v>1.001453602971523</v>
       </c>
       <c r="G14">
-        <v>0.3267914963657859</v>
+        <v>0.4612725131397326</v>
       </c>
       <c r="H14">
-        <v>0.2379473831831973</v>
+        <v>0.6039362608354537</v>
       </c>
       <c r="I14">
-        <v>0.1665941577267809</v>
+        <v>0.4046119866087921</v>
       </c>
       <c r="J14">
-        <v>0.2810629290975442</v>
+        <v>0.1981107794015031</v>
       </c>
       <c r="K14">
-        <v>4.154657714539894</v>
+        <v>1.339237828486148</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.142043813414091</v>
+        <v>2.087000835446645</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5449198535786195</v>
+        <v>0.1858366237501343</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3984846411307217</v>
+        <v>0.2872024499087331</v>
       </c>
       <c r="E15">
-        <v>0.2863719468822836</v>
+        <v>0.2048241665084092</v>
       </c>
       <c r="F15">
-        <v>0.6857988898541549</v>
+        <v>1.001278700750831</v>
       </c>
       <c r="G15">
-        <v>0.3244715041584669</v>
+        <v>0.4613654421774953</v>
       </c>
       <c r="H15">
-        <v>0.2375853397862357</v>
+        <v>0.6044111163433996</v>
       </c>
       <c r="I15">
-        <v>0.1676967087260675</v>
+        <v>0.4052951027373837</v>
       </c>
       <c r="J15">
-        <v>0.2781551794566752</v>
+        <v>0.197477271936549</v>
       </c>
       <c r="K15">
-        <v>4.110527511889757</v>
+        <v>1.325223991520716</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.136324925650058</v>
+        <v>2.088163673722562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5107523539790009</v>
+        <v>0.174913954653789</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3750170308687188</v>
+        <v>0.2812656180415019</v>
       </c>
       <c r="E16">
-        <v>0.2694494236437848</v>
+        <v>0.2008653010486228</v>
       </c>
       <c r="F16">
-        <v>0.6587343781221691</v>
+        <v>1.000469007790713</v>
       </c>
       <c r="G16">
-        <v>0.3115834376078936</v>
+        <v>0.4620172792366759</v>
       </c>
       <c r="H16">
-        <v>0.2357379108422464</v>
+        <v>0.6072272687737978</v>
       </c>
       <c r="I16">
-        <v>0.1742373707878784</v>
+        <v>0.4092953198020357</v>
       </c>
       <c r="J16">
-        <v>0.2616141466231596</v>
+        <v>0.1938776541152691</v>
       </c>
       <c r="K16">
-        <v>3.857823363897865</v>
+        <v>1.244826973146246</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.104888088734299</v>
+        <v>2.095276385957703</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4898148962125646</v>
+        <v>0.1682071300009795</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3606952624074609</v>
+        <v>0.2776474121961172</v>
       </c>
       <c r="E17">
-        <v>0.2591480948699854</v>
+        <v>0.1984597435401412</v>
       </c>
       <c r="F17">
-        <v>0.642617810784138</v>
+        <v>1.000144103102556</v>
       </c>
       <c r="G17">
-        <v>0.3040262527317452</v>
+        <v>0.4625234654489105</v>
       </c>
       <c r="H17">
-        <v>0.2348012281205314</v>
+        <v>0.6090396027686751</v>
       </c>
       <c r="I17">
-        <v>0.1784437475755709</v>
+        <v>0.4118256547876271</v>
       </c>
       <c r="J17">
-        <v>0.251570634704251</v>
+        <v>0.191696870207835</v>
       </c>
       <c r="K17">
-        <v>3.702943434619897</v>
+        <v>1.19542791879644</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.086752317295606</v>
+        <v>2.100040084561243</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4777796301031003</v>
+        <v>0.1643473863267246</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3524837943530201</v>
+        <v>0.2755751302083809</v>
       </c>
       <c r="E18">
-        <v>0.2532509538609773</v>
+        <v>0.1970846339558108</v>
       </c>
       <c r="F18">
-        <v>0.6335197008157678</v>
+        <v>1.000020349909484</v>
       </c>
       <c r="G18">
-        <v>0.2998025514145866</v>
+        <v>0.4628536188253562</v>
       </c>
       <c r="H18">
-        <v>0.2343323598578877</v>
+        <v>0.6101131390119292</v>
       </c>
       <c r="I18">
-        <v>0.1809326335930574</v>
+        <v>0.4133090839273734</v>
       </c>
       <c r="J18">
-        <v>0.2458300841118586</v>
+        <v>0.1904526420393893</v>
       </c>
       <c r="K18">
-        <v>3.613905726068651</v>
+        <v>1.166986856237884</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.076727282071602</v>
+        <v>2.102927007578245</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4737058643859768</v>
+        <v>0.1630401821499134</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3497078675672469</v>
+        <v>0.2748750097602652</v>
       </c>
       <c r="E19">
-        <v>0.2512589361489077</v>
+        <v>0.1966205080686194</v>
       </c>
       <c r="F19">
-        <v>0.6304680696593863</v>
+        <v>0.999989288954886</v>
       </c>
       <c r="G19">
-        <v>0.2983931075739648</v>
+        <v>0.4629720972728819</v>
       </c>
       <c r="H19">
-        <v>0.234185391674913</v>
+        <v>0.6104819661970708</v>
       </c>
       <c r="I19">
-        <v>0.1817870984489485</v>
+        <v>0.4138161643237268</v>
       </c>
       <c r="J19">
-        <v>0.2438924702834413</v>
+        <v>0.1900331033554892</v>
       </c>
       <c r="K19">
-        <v>3.583766058579783</v>
+        <v>1.157352449523898</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.073401227414962</v>
+        <v>2.103929699722869</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4920429331164513</v>
+        <v>0.168921308144121</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3622171120531164</v>
+        <v>0.2780316652679886</v>
       </c>
       <c r="E20">
-        <v>0.2602417665436931</v>
+        <v>0.1987149396690597</v>
       </c>
       <c r="F20">
-        <v>0.6443155174719095</v>
+        <v>1.00017215631064</v>
       </c>
       <c r="G20">
-        <v>0.3048178803695549</v>
+        <v>0.4624655425137263</v>
       </c>
       <c r="H20">
-        <v>0.2348936537982098</v>
+        <v>0.6088434548475306</v>
       </c>
       <c r="I20">
-        <v>0.1779887404962732</v>
+        <v>0.4115533934181546</v>
       </c>
       <c r="J20">
-        <v>0.2526359924859065</v>
+        <v>0.1919279731306176</v>
       </c>
       <c r="K20">
-        <v>3.719425809663164</v>
+        <v>1.200689448767719</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.088640501244043</v>
+        <v>2.099517766927903</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5537493396279274</v>
+        <v>0.1886546734540673</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4045678910637491</v>
+        <v>0.2887425552102343</v>
       </c>
       <c r="E21">
-        <v>0.2907670457131459</v>
+        <v>0.2058533844171961</v>
       </c>
       <c r="F21">
-        <v>0.692942823294274</v>
+        <v>1.001540880941249</v>
       </c>
       <c r="G21">
-        <v>0.3279113918204217</v>
+        <v>0.4612300634974389</v>
       </c>
       <c r="H21">
-        <v>0.2381251021801489</v>
+        <v>0.6037102343735796</v>
       </c>
       <c r="I21">
-        <v>0.1660694536245302</v>
+        <v>0.4042859274120953</v>
       </c>
       <c r="J21">
-        <v>0.282459507129829</v>
+        <v>0.1984151072417859</v>
       </c>
       <c r="K21">
-        <v>4.175822993706504</v>
+        <v>1.345956239509349</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.14481041229098</v>
+        <v>2.086451169245805</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5941683689426327</v>
+        <v>0.2015303824476007</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.432510476394981</v>
+        <v>0.2958201653695198</v>
       </c>
       <c r="E22">
-        <v>0.310998772019019</v>
+        <v>0.2105940187323014</v>
       </c>
       <c r="F22">
-        <v>0.7264076525097067</v>
+        <v>1.002997913539531</v>
       </c>
       <c r="G22">
-        <v>0.3442159274075607</v>
+        <v>0.4607712092570182</v>
       </c>
       <c r="H22">
-        <v>0.2409112381819511</v>
+        <v>0.6006326492681922</v>
       </c>
       <c r="I22">
-        <v>0.1589365752687968</v>
+        <v>0.3997860667377076</v>
       </c>
       <c r="J22">
-        <v>0.3023160983257895</v>
+        <v>0.2027446074681762</v>
       </c>
       <c r="K22">
-        <v>4.474692305665258</v>
+        <v>1.440632773754317</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.185493101749813</v>
+        <v>2.07922293616781</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5725864764643802</v>
+        <v>0.1946604088543324</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4175712273913348</v>
+        <v>0.2920356788961556</v>
       </c>
       <c r="E23">
-        <v>0.3001732713032865</v>
+        <v>0.2080569907984753</v>
       </c>
       <c r="F23">
-        <v>0.7083849384554668</v>
+        <v>1.002168781387837</v>
       </c>
       <c r="G23">
-        <v>0.3353971638169924</v>
+        <v>0.4609841516168984</v>
       </c>
       <c r="H23">
-        <v>0.2393599209961224</v>
+        <v>0.6022498408653689</v>
       </c>
       <c r="I23">
-        <v>0.1626814883593077</v>
+        <v>0.402164861423099</v>
       </c>
       <c r="J23">
-        <v>0.2916826883301979</v>
+        <v>0.2004256646626601</v>
       </c>
       <c r="K23">
-        <v>4.315116957205873</v>
+        <v>1.390126934831983</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.163398593367106</v>
+        <v>2.082960639021593</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4910356317991642</v>
+        <v>0.1685984403350176</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3615290146926498</v>
+        <v>0.2778579199206206</v>
       </c>
       <c r="E24">
-        <v>0.2597472393524782</v>
+        <v>0.1985995409572965</v>
       </c>
       <c r="F24">
-        <v>0.643547464171661</v>
+        <v>1.000159277098028</v>
       </c>
       <c r="G24">
-        <v>0.3044596098090437</v>
+        <v>0.4624916075674292</v>
       </c>
       <c r="H24">
-        <v>0.2348516517881478</v>
+        <v>0.6089320348867773</v>
       </c>
       <c r="I24">
-        <v>0.1781942297596188</v>
+        <v>0.4116763933687331</v>
       </c>
       <c r="J24">
-        <v>0.2521542400442485</v>
+        <v>0.1918234618024997</v>
       </c>
       <c r="K24">
-        <v>3.711974114871339</v>
+        <v>1.198310838273812</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.08778560666741</v>
+        <v>2.099753445097605</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4033405085094302</v>
+        <v>0.1404050716798224</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3020574126754241</v>
+        <v>0.2629024695460203</v>
       </c>
       <c r="E25">
-        <v>0.2171914712011258</v>
+        <v>0.1887234892853797</v>
       </c>
       <c r="F25">
-        <v>0.5800959983484049</v>
+        <v>1.000404737651415</v>
       </c>
       <c r="G25">
-        <v>0.2757316476390201</v>
+        <v>0.4656082438106921</v>
       </c>
       <c r="H25">
-        <v>0.2326344195079955</v>
+        <v>0.6173299779809014</v>
       </c>
       <c r="I25">
-        <v>0.1975641235443035</v>
+        <v>0.4230083994693743</v>
       </c>
       <c r="J25">
-        <v>0.2108792384431837</v>
+        <v>0.1829308286121147</v>
       </c>
       <c r="K25">
-        <v>3.063019951140745</v>
+        <v>0.9903420687317066</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.021573726965698</v>
+        <v>2.123484417053447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1195823126968207</v>
+        <v>0.3388701710946549</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2521840007823073</v>
+        <v>0.2589436566278067</v>
       </c>
       <c r="E2">
-        <v>0.1817321604552902</v>
+        <v>0.1865917371117831</v>
       </c>
       <c r="F2">
-        <v>1.002657103835233</v>
+        <v>0.5381840814350625</v>
       </c>
       <c r="G2">
-        <v>0.4691778255019017</v>
+        <v>0.2579971000919485</v>
       </c>
       <c r="H2">
-        <v>0.624537289142431</v>
+        <v>0.2330224076678675</v>
       </c>
       <c r="I2">
-        <v>0.4322752185273107</v>
+        <v>0.2139062156081817</v>
       </c>
       <c r="J2">
-        <v>0.1767144191186674</v>
+        <v>0.1814449756030498</v>
       </c>
       <c r="K2">
-        <v>0.836340381242195</v>
+        <v>2.585603440824798</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.145773834768136</v>
+        <v>0.9842683018111416</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1054339025360349</v>
+        <v>0.2951797335777826</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2451045383362214</v>
+        <v>0.2300699228994745</v>
       </c>
       <c r="E3">
-        <v>0.1771693951812097</v>
+        <v>0.1662344418627697</v>
       </c>
       <c r="F3">
-        <v>1.005474163352524</v>
+        <v>0.5124243495655634</v>
       </c>
       <c r="G3">
-        <v>0.4723886240265074</v>
+        <v>0.2478456364323378</v>
       </c>
       <c r="H3">
-        <v>0.6300606986291726</v>
+        <v>0.2344286851196316</v>
       </c>
       <c r="I3">
-        <v>0.4391317139909034</v>
+        <v>0.2261914419041826</v>
       </c>
       <c r="J3">
-        <v>0.1727077392993479</v>
+        <v>0.1619950990725201</v>
       </c>
       <c r="K3">
-        <v>0.7314491664905063</v>
+        <v>2.261862774024365</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.163876794879457</v>
+        <v>0.9653197813908605</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09673000671905641</v>
+        <v>0.2683367029652004</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2408494425518768</v>
+        <v>0.2124883796082315</v>
       </c>
       <c r="E4">
-        <v>0.1744545561820914</v>
+        <v>0.1538990615017894</v>
       </c>
       <c r="F4">
-        <v>1.007840017497806</v>
+        <v>0.4978030462613745</v>
       </c>
       <c r="G4">
-        <v>0.4747494121901994</v>
+        <v>0.2424521137662339</v>
       </c>
       <c r="H4">
-        <v>0.6337673373468036</v>
+        <v>0.2358199894885971</v>
       </c>
       <c r="I4">
-        <v>0.4436260215305605</v>
+        <v>0.2343040864423358</v>
       </c>
       <c r="J4">
-        <v>0.1703493160176635</v>
+        <v>0.1502683397985081</v>
       </c>
       <c r="K4">
-        <v>0.6667970383132911</v>
+        <v>2.062860706188616</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.1764681691173</v>
+        <v>0.9565607638001552</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09317916990835329</v>
+        <v>0.2573914165141673</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2391386688406669</v>
+        <v>0.2053576201133893</v>
       </c>
       <c r="E5">
-        <v>0.1733701089234394</v>
+        <v>0.1489103228420596</v>
       </c>
       <c r="F5">
-        <v>1.008964067103889</v>
+        <v>0.4921300159019353</v>
       </c>
       <c r="G5">
-        <v>0.475809201007614</v>
+        <v>0.2404538219298047</v>
       </c>
       <c r="H5">
-        <v>0.6353571048546343</v>
+        <v>0.2365145895792296</v>
       </c>
       <c r="I5">
-        <v>0.4455290126485583</v>
+        <v>0.2377493187608497</v>
       </c>
       <c r="J5">
-        <v>0.1694138346030272</v>
+        <v>0.1455396333928434</v>
       </c>
       <c r="K5">
-        <v>0.6403902091896612</v>
+        <v>1.981692932105148</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.181970118322823</v>
+        <v>0.9536793980070115</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09258932698703859</v>
+        <v>0.2555735017378424</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2388560024955098</v>
+        <v>0.2041755201255882</v>
       </c>
       <c r="E6">
-        <v>0.1731913602184925</v>
+        <v>0.1480841520059606</v>
       </c>
       <c r="F6">
-        <v>1.00916037423243</v>
+        <v>0.4912048091297976</v>
       </c>
       <c r="G6">
-        <v>0.4759910773332479</v>
+        <v>0.2401337370020258</v>
       </c>
       <c r="H6">
-        <v>0.6356258733323159</v>
+        <v>0.2366374913765981</v>
       </c>
       <c r="I6">
-        <v>0.4458493231257474</v>
+        <v>0.2383296961095489</v>
       </c>
       <c r="J6">
-        <v>0.1692600452054265</v>
+        <v>0.144757340078236</v>
       </c>
       <c r="K6">
-        <v>0.6360017743506319</v>
+        <v>1.968210227968086</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.182906102811586</v>
+        <v>0.9532415083240977</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09668213443382001</v>
+        <v>0.2681891203612992</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2408262762763087</v>
+        <v>0.2123920785855091</v>
       </c>
       <c r="E7">
-        <v>0.174439842301787</v>
+        <v>0.1538316318046249</v>
       </c>
       <c r="F7">
-        <v>1.007854529247105</v>
+        <v>0.497725402448026</v>
       </c>
       <c r="G7">
-        <v>0.4747633092997532</v>
+        <v>0.2424243706891573</v>
       </c>
       <c r="H7">
-        <v>0.6337884564822076</v>
+        <v>0.2358288468976681</v>
       </c>
       <c r="I7">
-        <v>0.4436513963183106</v>
+        <v>0.2343499912571723</v>
       </c>
       <c r="J7">
-        <v>0.1703365961229437</v>
+        <v>0.1502043695347126</v>
       </c>
       <c r="K7">
-        <v>0.666441149236249</v>
+        <v>2.061766364975114</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.176540869137625</v>
+        <v>0.956519164151814</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.114707569944656</v>
+        <v>0.3238077916011406</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2497240511433176</v>
+        <v>0.2489555418765121</v>
       </c>
       <c r="E8">
-        <v>0.1801409585482645</v>
+        <v>0.1795364870350085</v>
       </c>
       <c r="F8">
-        <v>1.003496372176514</v>
+        <v>0.5290446168520759</v>
       </c>
       <c r="G8">
-        <v>0.470204006296548</v>
+        <v>0.25431555257925</v>
       </c>
       <c r="H8">
-        <v>0.6263763390845583</v>
+        <v>0.2333945964945912</v>
       </c>
       <c r="I8">
-        <v>0.4345803200484681</v>
+        <v>0.2180215555218297</v>
       </c>
       <c r="J8">
-        <v>0.1753118216176262</v>
+        <v>0.174691351555019</v>
       </c>
       <c r="K8">
-        <v>0.8002265870659357</v>
+        <v>2.474013759505482</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.151709185957401</v>
+        <v>0.9771164536894617</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1499124367479823</v>
+        <v>0.4328568778900461</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2678949077518951</v>
+        <v>0.3219750268929289</v>
       </c>
       <c r="E9">
-        <v>0.1920067519180222</v>
+        <v>0.2314016386388573</v>
       </c>
       <c r="F9">
-        <v>1.000000015184035</v>
+        <v>0.6006736087779316</v>
       </c>
       <c r="G9">
-        <v>0.464359894327302</v>
+        <v>0.2848409330176125</v>
       </c>
       <c r="H9">
-        <v>0.6143420847684027</v>
+        <v>0.2330511095428491</v>
       </c>
       <c r="I9">
-        <v>0.4190478570801979</v>
+        <v>0.19070410047647</v>
       </c>
       <c r="J9">
-        <v>0.185874824323875</v>
+        <v>0.2246204598608585</v>
       </c>
       <c r="K9">
-        <v>1.06053556122373</v>
+        <v>3.281495317180145</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.114741449861313</v>
+        <v>1.041986897316932</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1756789511267129</v>
+        <v>0.5131425472355602</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2816796712387202</v>
+        <v>0.3766548775654144</v>
       </c>
       <c r="E10">
-        <v>0.2011409425320565</v>
+        <v>0.2706287680114485</v>
       </c>
       <c r="F10">
-        <v>1.000514636430772</v>
+        <v>0.6605971687900265</v>
       </c>
       <c r="G10">
-        <v>0.4619648098734217</v>
+        <v>0.3124628140131875</v>
       </c>
       <c r="H10">
-        <v>0.6070246872467777</v>
+        <v>0.2358544335393873</v>
       </c>
       <c r="I10">
-        <v>0.4090103917808978</v>
+        <v>0.173766936693303</v>
       </c>
       <c r="J10">
-        <v>0.1941278648999969</v>
+        <v>0.2627652286008555</v>
       </c>
       <c r="K10">
-        <v>1.250459902285456</v>
+        <v>3.875502963088707</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.094752739223196</v>
+        <v>1.107013715815299</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1873771826285235</v>
+        <v>0.5497459807143912</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2880439751445749</v>
+        <v>0.4018087571245417</v>
       </c>
       <c r="E11">
-        <v>0.2053864299151087</v>
+        <v>0.2887731683668946</v>
       </c>
       <c r="F11">
-        <v>1.001419410855704</v>
+        <v>0.6896961919879203</v>
       </c>
       <c r="G11">
-        <v>0.4612898219435095</v>
+        <v>0.3263462288469583</v>
       </c>
       <c r="H11">
-        <v>0.6040267002922377</v>
+        <v>0.2378772522131527</v>
       </c>
       <c r="I11">
-        <v>0.4047422882102474</v>
+        <v>0.1668041256824644</v>
       </c>
       <c r="J11">
-        <v>0.1979895144136634</v>
+        <v>0.2805063913281458</v>
       </c>
       <c r="K11">
-        <v>1.336558304482367</v>
+        <v>4.146217877497463</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.087221467412178</v>
+        <v>1.140944897144806</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1918034373503872</v>
+        <v>0.5636220910538157</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2904672945047366</v>
+        <v>0.4113788515423664</v>
       </c>
       <c r="E12">
-        <v>0.2070070191796773</v>
+        <v>0.2956919631223016</v>
       </c>
       <c r="F12">
-        <v>1.001858527709885</v>
+        <v>0.7010023089441404</v>
       </c>
       <c r="G12">
-        <v>0.4610940116827891</v>
+        <v>0.3318099569674757</v>
       </c>
       <c r="H12">
-        <v>0.6029389963966167</v>
+        <v>0.238758255384127</v>
       </c>
       <c r="I12">
-        <v>0.4031689136304877</v>
+        <v>0.1642797068557709</v>
       </c>
       <c r="J12">
-        <v>0.1994672427019282</v>
+        <v>0.2872866925885944</v>
       </c>
       <c r="K12">
-        <v>1.369116820938189</v>
+        <v>4.248830103519708</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.084594518215368</v>
+        <v>1.154470883865258</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1908503294635295</v>
+        <v>0.5606328882507512</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2899448004841645</v>
+        <v>0.4093156877117394</v>
       </c>
       <c r="E13">
-        <v>0.2066574229815643</v>
+        <v>0.2941996663907958</v>
       </c>
       <c r="F13">
-        <v>1.001759663356964</v>
+        <v>0.6985541988667876</v>
       </c>
       <c r="G13">
-        <v>0.4611335207399208</v>
+        <v>0.3306237861940531</v>
       </c>
       <c r="H13">
-        <v>0.6031711371087454</v>
+        <v>0.2385632757086142</v>
       </c>
       <c r="I13">
-        <v>0.4035058614120377</v>
+        <v>0.1648183016784923</v>
       </c>
       <c r="J13">
-        <v>0.1991483027050123</v>
+        <v>0.2858235680286896</v>
       </c>
       <c r="K13">
-        <v>1.362106799581795</v>
+        <v>4.226725900020597</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.085150266178459</v>
+        <v>1.151526855228298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1877414073186401</v>
+        <v>0.5508872512535277</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2882430775185583</v>
+        <v>0.4025951676437103</v>
       </c>
       <c r="E14">
-        <v>0.2055194983255006</v>
+        <v>0.289341393047323</v>
       </c>
       <c r="F14">
-        <v>1.001453602971523</v>
+        <v>0.6906204682865393</v>
       </c>
       <c r="G14">
-        <v>0.4612725131397326</v>
+        <v>0.3267914963657148</v>
       </c>
       <c r="H14">
-        <v>0.6039362608354537</v>
+        <v>0.237947383183311</v>
       </c>
       <c r="I14">
-        <v>0.4046119866087921</v>
+        <v>0.1665941577267755</v>
       </c>
       <c r="J14">
-        <v>0.1981107794015031</v>
+        <v>0.2810629290975299</v>
       </c>
       <c r="K14">
-        <v>1.339237828486148</v>
+        <v>4.154657714540122</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.087000835446645</v>
+        <v>1.142043813414091</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1858366237501343</v>
+        <v>0.5449198535785627</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2872024499087331</v>
+        <v>0.3984846411307785</v>
       </c>
       <c r="E15">
-        <v>0.2048241665084092</v>
+        <v>0.2863719468822907</v>
       </c>
       <c r="F15">
-        <v>1.001278700750831</v>
+        <v>0.6857988898541549</v>
       </c>
       <c r="G15">
-        <v>0.4613654421774953</v>
+        <v>0.3244715041585238</v>
       </c>
       <c r="H15">
-        <v>0.6044111163433996</v>
+        <v>0.2375853397863494</v>
       </c>
       <c r="I15">
-        <v>0.4052951027373837</v>
+        <v>0.1676967087260639</v>
       </c>
       <c r="J15">
-        <v>0.197477271936549</v>
+        <v>0.2781551794567605</v>
       </c>
       <c r="K15">
-        <v>1.325223991520716</v>
+        <v>4.110527511889643</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.088163673722562</v>
+        <v>1.13632492565003</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.174913954653789</v>
+        <v>0.5107523539791714</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2812656180415019</v>
+        <v>0.375017030868861</v>
       </c>
       <c r="E16">
-        <v>0.2008653010486228</v>
+        <v>0.2694494236437848</v>
       </c>
       <c r="F16">
-        <v>1.000469007790713</v>
+        <v>0.6587343781221406</v>
       </c>
       <c r="G16">
-        <v>0.4620172792366759</v>
+        <v>0.3115834376079079</v>
       </c>
       <c r="H16">
-        <v>0.6072272687737978</v>
+        <v>0.2357379108422464</v>
       </c>
       <c r="I16">
-        <v>0.4092953198020357</v>
+        <v>0.1742373707878784</v>
       </c>
       <c r="J16">
-        <v>0.1938776541152691</v>
+        <v>0.2616141466229891</v>
       </c>
       <c r="K16">
-        <v>1.244826973146246</v>
+        <v>3.857823363897751</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.095276385957703</v>
+        <v>1.104888088734299</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1682071300009795</v>
+        <v>0.4898148962125219</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2776474121961172</v>
+        <v>0.360695262407333</v>
       </c>
       <c r="E17">
-        <v>0.1984597435401412</v>
+        <v>0.259148094869964</v>
       </c>
       <c r="F17">
-        <v>1.000144103102556</v>
+        <v>0.642617810784138</v>
       </c>
       <c r="G17">
-        <v>0.4625234654489105</v>
+        <v>0.3040262527317594</v>
       </c>
       <c r="H17">
-        <v>0.6090396027686751</v>
+        <v>0.2348012281205314</v>
       </c>
       <c r="I17">
-        <v>0.4118256547876271</v>
+        <v>0.1784437475755354</v>
       </c>
       <c r="J17">
-        <v>0.191696870207835</v>
+        <v>0.2515706347041942</v>
       </c>
       <c r="K17">
-        <v>1.19542791879644</v>
+        <v>3.702943434619897</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.100040084561243</v>
+        <v>1.086752317295577</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1643473863267246</v>
+        <v>0.4777796301031003</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2755751302083809</v>
+        <v>0.3524837943533043</v>
       </c>
       <c r="E18">
-        <v>0.1970846339558108</v>
+        <v>0.2532509538609915</v>
       </c>
       <c r="F18">
-        <v>1.000020349909484</v>
+        <v>0.6335197008157962</v>
       </c>
       <c r="G18">
-        <v>0.4628536188253562</v>
+        <v>0.2998025514145866</v>
       </c>
       <c r="H18">
-        <v>0.6101131390119292</v>
+        <v>0.2343323598578877</v>
       </c>
       <c r="I18">
-        <v>0.4133090839273734</v>
+        <v>0.1809326335930574</v>
       </c>
       <c r="J18">
-        <v>0.1904526420393893</v>
+        <v>0.2458300841118728</v>
       </c>
       <c r="K18">
-        <v>1.166986856237884</v>
+        <v>3.613905726068651</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.102927007578245</v>
+        <v>1.076727282071545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1630401821499134</v>
+        <v>0.473705864385991</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2748750097602652</v>
+        <v>0.3497078675670764</v>
       </c>
       <c r="E19">
-        <v>0.1966205080686194</v>
+        <v>0.2512589361489148</v>
       </c>
       <c r="F19">
-        <v>0.999989288954886</v>
+        <v>0.6304680696594005</v>
       </c>
       <c r="G19">
-        <v>0.4629720972728819</v>
+        <v>0.2983931075739505</v>
       </c>
       <c r="H19">
-        <v>0.6104819661970708</v>
+        <v>0.2341853916748988</v>
       </c>
       <c r="I19">
-        <v>0.4138161643237268</v>
+        <v>0.1817870984489449</v>
       </c>
       <c r="J19">
-        <v>0.1900331033554892</v>
+        <v>0.2438924702834413</v>
       </c>
       <c r="K19">
-        <v>1.157352449523898</v>
+        <v>3.58376605857984</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.103929699722869</v>
+        <v>1.073401227414934</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.168921308144121</v>
+        <v>0.4920429331164371</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2780316652679886</v>
+        <v>0.3622171120531306</v>
       </c>
       <c r="E20">
-        <v>0.1987149396690597</v>
+        <v>0.2602417665437216</v>
       </c>
       <c r="F20">
-        <v>1.00017215631064</v>
+        <v>0.6443155174719095</v>
       </c>
       <c r="G20">
-        <v>0.4624655425137263</v>
+        <v>0.3048178803696118</v>
       </c>
       <c r="H20">
-        <v>0.6088434548475306</v>
+        <v>0.2348936537981956</v>
       </c>
       <c r="I20">
-        <v>0.4115533934181546</v>
+        <v>0.1779887404962412</v>
       </c>
       <c r="J20">
-        <v>0.1919279731306176</v>
+        <v>0.252635992486006</v>
       </c>
       <c r="K20">
-        <v>1.200689448767719</v>
+        <v>3.719425809662994</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.099517766927903</v>
+        <v>1.088640501243958</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1886546734540673</v>
+        <v>0.5537493396279558</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2887425552102343</v>
+        <v>0.4045678910636639</v>
       </c>
       <c r="E21">
-        <v>0.2058533844171961</v>
+        <v>0.2907670457131388</v>
       </c>
       <c r="F21">
-        <v>1.001540880941249</v>
+        <v>0.6929428232942882</v>
       </c>
       <c r="G21">
-        <v>0.4612300634974389</v>
+        <v>0.3279113918203649</v>
       </c>
       <c r="H21">
-        <v>0.6037102343735796</v>
+        <v>0.2381251021801489</v>
       </c>
       <c r="I21">
-        <v>0.4042859274120953</v>
+        <v>0.1660694536245284</v>
       </c>
       <c r="J21">
-        <v>0.1984151072417859</v>
+        <v>0.2824595071298006</v>
       </c>
       <c r="K21">
-        <v>1.345956239509349</v>
+        <v>4.175822993706504</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.086451169245805</v>
+        <v>1.144810412291008</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2015303824476007</v>
+        <v>0.594168368942718</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2958201653695198</v>
+        <v>0.4325104763950094</v>
       </c>
       <c r="E22">
-        <v>0.2105940187323014</v>
+        <v>0.3109987720190119</v>
       </c>
       <c r="F22">
-        <v>1.002997913539531</v>
+        <v>0.7264076525096925</v>
       </c>
       <c r="G22">
-        <v>0.4607712092570182</v>
+        <v>0.3442159274075465</v>
       </c>
       <c r="H22">
-        <v>0.6006326492681922</v>
+        <v>0.2409112381819511</v>
       </c>
       <c r="I22">
-        <v>0.3997860667377076</v>
+        <v>0.1589365752688217</v>
       </c>
       <c r="J22">
-        <v>0.2027446074681762</v>
+        <v>0.3023160983257327</v>
       </c>
       <c r="K22">
-        <v>1.440632773754317</v>
+        <v>4.474692305665258</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.07922293616781</v>
+        <v>1.185493101749728</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1946604088543324</v>
+        <v>0.5725864764642949</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2920356788961556</v>
+        <v>0.4175712273912779</v>
       </c>
       <c r="E23">
-        <v>0.2080569907984753</v>
+        <v>0.3001732713032865</v>
       </c>
       <c r="F23">
-        <v>1.002168781387837</v>
+        <v>0.7083849384554668</v>
       </c>
       <c r="G23">
-        <v>0.4609841516168984</v>
+        <v>0.3353971638169781</v>
       </c>
       <c r="H23">
-        <v>0.6022498408653689</v>
+        <v>0.2393599209962503</v>
       </c>
       <c r="I23">
-        <v>0.402164861423099</v>
+        <v>0.1626814883593095</v>
       </c>
       <c r="J23">
-        <v>0.2004256646626601</v>
+        <v>0.2916826883301553</v>
       </c>
       <c r="K23">
-        <v>1.390126934831983</v>
+        <v>4.315116957205817</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.082960639021593</v>
+        <v>1.163398593367077</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1685984403350176</v>
+        <v>0.4910356317992211</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2778579199206206</v>
+        <v>0.3615290146927492</v>
       </c>
       <c r="E24">
-        <v>0.1985995409572965</v>
+        <v>0.2597472393524782</v>
       </c>
       <c r="F24">
-        <v>1.000159277098028</v>
+        <v>0.643547464171661</v>
       </c>
       <c r="G24">
-        <v>0.4624916075674292</v>
+        <v>0.3044596098090437</v>
       </c>
       <c r="H24">
-        <v>0.6089320348867773</v>
+        <v>0.2348516517881336</v>
       </c>
       <c r="I24">
-        <v>0.4116763933687331</v>
+        <v>0.1781942297596153</v>
       </c>
       <c r="J24">
-        <v>0.1918234618024997</v>
+        <v>0.2521542400443053</v>
       </c>
       <c r="K24">
-        <v>1.198310838273812</v>
+        <v>3.711974114871339</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.099753445097605</v>
+        <v>1.087785606667381</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1404050716798224</v>
+        <v>0.4033405085095723</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2629024695460203</v>
+        <v>0.3020574126754809</v>
       </c>
       <c r="E25">
-        <v>0.1887234892853797</v>
+        <v>0.2171914712011187</v>
       </c>
       <c r="F25">
-        <v>1.000404737651415</v>
+        <v>0.5800959983483978</v>
       </c>
       <c r="G25">
-        <v>0.4656082438106921</v>
+        <v>0.2757316476390343</v>
       </c>
       <c r="H25">
-        <v>0.6173299779809014</v>
+        <v>0.2326344195079884</v>
       </c>
       <c r="I25">
-        <v>0.4230083994693743</v>
+        <v>0.1975641235442751</v>
       </c>
       <c r="J25">
-        <v>0.1829308286121147</v>
+        <v>0.2108792384431695</v>
       </c>
       <c r="K25">
-        <v>0.9903420687317066</v>
+        <v>3.063019951140802</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.123484417053447</v>
+        <v>1.021573726965698</v>
       </c>
     </row>
   </sheetData>
